--- a/Tài liệu/users_data.xlsx
+++ b/Tài liệu/users_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Application-Managing-and-Optimizing-Faculty-Teaching-Hours\Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6CA533-846E-423C-AE34-B1D61A2E4011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>Giảng Viên</t>
   </si>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -376,21 +377,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,9 +412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -453,9 +452,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -698,23 +697,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,548 +739,608 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
         <v>14204</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>12705</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
         <v>12700</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
         <v>12702</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
         <v>12701</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
